--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>James Michael Anderson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Fast Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2005</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2008</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2010</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +713,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>11/01/2003</t>
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2019</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2020</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -748,7 +812,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>17/01/2003</t>
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2023</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +871,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2024</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +923,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2026</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +975,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2027</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1015,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/02/2003</t>
@@ -960,7 +1022,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2041</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1012,7 +1074,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2044</t>
+          <t>2044</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1114,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>22/02/2003</t>
@@ -1060,7 +1121,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2049</t>
+          <t>2049</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1173,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2056</t>
+          <t>2056</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1213,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>02/03/2003</t>
@@ -1160,7 +1220,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2064</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1212,7 +1272,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2114</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1312,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>20/06/2003</t>
@@ -1260,7 +1319,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2115</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1300,7 +1359,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>22/06/2003</t>
@@ -1308,7 +1366,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2116</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1348,7 +1406,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>28/06/2003</t>
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2118</t>
+          <t>2118</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1453,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/07/2003</t>
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2120</t>
+          <t>2120</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1444,7 +1500,6 @@
           <t>20</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>03/07/2003</t>
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2121</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>06/07/2003</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2123</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1540,7 +1594,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>08/07/2003</t>
@@ -1548,7 +1601,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2124</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1588,7 +1641,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>12/07/2003</t>
@@ -1596,7 +1648,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2126</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1636,7 +1688,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>07/11/2003</t>
@@ -1644,7 +1695,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2146</t>
+          <t>2146</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1684,7 +1735,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>10/11/2003</t>
@@ -1692,7 +1742,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2148</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1732,7 +1782,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>12/11/2003</t>
@@ -1740,7 +1789,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2149</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1792,7 +1841,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2152</t>
+          <t>2152</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1832,7 +1881,6 @@
           <t>28</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>24/04/2004</t>
@@ -1840,7 +1888,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2213</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1880,7 +1928,6 @@
           <t>29</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/05/2004</t>
@@ -1888,7 +1935,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1928,7 +1975,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>02/05/2004</t>
@@ -1936,7 +1982,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1976,7 +2022,6 @@
           <t>31</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>05/05/2004</t>
@@ -1984,7 +2029,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2221</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2036,7 +2081,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2230</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2088,7 +2133,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2231</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2128,7 +2173,6 @@
           <t>34</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/07/2004</t>
@@ -2136,7 +2180,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2232</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2176,7 +2220,6 @@
           <t>35</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>04/07/2004</t>
@@ -2184,7 +2227,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2234</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2224,7 +2267,6 @@
           <t>36</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>06/07/2004</t>
@@ -2232,7 +2274,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2235</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2272,7 +2314,6 @@
           <t>37</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>28/11/2004</t>
@@ -2280,7 +2321,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2290</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2320,7 +2361,6 @@
           <t>38</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>01/12/2004</t>
@@ -2328,7 +2368,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2291</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2368,7 +2408,6 @@
           <t>39</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>04/12/2004</t>
@@ -2376,7 +2415,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2292</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2416,7 +2455,6 @@
           <t>40</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>10/12/2005</t>
@@ -2424,7 +2462,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2403</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2464,7 +2502,6 @@
           <t>41</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>12/12/2005</t>
@@ -2472,7 +2509,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2404</t>
+          <t>2404</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2512,7 +2549,6 @@
           <t>42</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>15/12/2005</t>
@@ -2520,7 +2556,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2405</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2572,7 +2608,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2406</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2612,7 +2648,6 @@
           <t>44</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>21/12/2005</t>
@@ -2620,7 +2655,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2407</t>
+          <t>2407</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2672,7 +2707,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2457</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2724,7 +2759,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2458</t>
+          <t>2458</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2776,7 +2811,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2459</t>
+          <t>2459</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2828,7 +2863,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2460</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2868,7 +2903,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>12/04/2006</t>
@@ -2876,7 +2910,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2462</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2928,7 +2962,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2463</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2980,7 +3014,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2533</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3032,7 +3066,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2538</t>
+          <t>2538</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3072,7 +3106,6 @@
           <t>53</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>28/10/2006</t>
@@ -3080,7 +3113,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3120,7 +3153,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>12/01/2007</t>
@@ -3128,7 +3160,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2579</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3168,7 +3200,6 @@
           <t>55</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>16/01/2007</t>
@@ -3176,7 +3207,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2581</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3228,7 +3259,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2584</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3280,7 +3311,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2589</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3320,7 +3351,6 @@
           <t>58</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>16/03/2007</t>
@@ -3328,7 +3358,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2643</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3368,7 +3398,6 @@
           <t>59</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>18/03/2007</t>
@@ -3376,7 +3405,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2648</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3416,7 +3445,6 @@
           <t>60</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>24/03/2007</t>
@@ -3424,7 +3452,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2660</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3464,7 +3492,6 @@
           <t>61</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>30/03/2007</t>
@@ -3472,7 +3499,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2665</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3512,7 +3539,6 @@
           <t>62</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>04/04/2007</t>
@@ -3520,7 +3546,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2670</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3572,7 +3598,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2672</t>
+          <t>2672</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3612,7 +3638,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>11/04/2007</t>
@@ -3620,7 +3645,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2675</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3672,7 +3697,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2681</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3724,7 +3749,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3776,7 +3801,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3828,7 +3853,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3880,7 +3905,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3920,7 +3945,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>21/08/2007</t>
@@ -3928,7 +3952,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2722</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3968,7 +3992,6 @@
           <t>71</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>24/08/2007</t>
@@ -3976,7 +3999,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2724</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4028,7 +4051,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2727</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4068,7 +4091,6 @@
           <t>73</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>30/08/2007</t>
@@ -4076,7 +4098,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2728</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4128,7 +4150,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2729</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4168,7 +4190,6 @@
           <t>75</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>05/09/2007</t>
@@ -4176,7 +4197,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2730</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4216,7 +4237,6 @@
           <t>76</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>08/09/2007</t>
@@ -4224,7 +4244,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2731</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4276,7 +4296,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2733</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4316,7 +4336,6 @@
           <t>78</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>04/10/2007</t>
@@ -4324,7 +4343,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2735</t>
+          <t>2735</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4364,7 +4383,6 @@
           <t>79</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>07/10/2007</t>
@@ -4372,7 +4390,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2737</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4412,7 +4430,6 @@
           <t>80</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>10/10/2007</t>
@@ -4420,7 +4437,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2739</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4472,7 +4489,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2741</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4524,7 +4541,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2786</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4576,7 +4593,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2789</t>
+          <t>2789</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4616,7 +4633,6 @@
           <t>84</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>15/02/2008</t>
@@ -4624,7 +4640,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2790</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4664,7 +4680,6 @@
           <t>85</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>20/02/2008</t>
@@ -4672,7 +4687,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2794</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4712,7 +4727,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>23/02/2008</t>
@@ -4720,7 +4734,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2796</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4760,7 +4774,6 @@
           <t>87</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>15/06/2008</t>
@@ -4768,7 +4781,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4820,7 +4833,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2821</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4872,7 +4885,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2822</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4924,7 +4937,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2826</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4976,7 +4989,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2832</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5016,7 +5029,6 @@
           <t>92</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>18/08/2008</t>
@@ -5024,7 +5036,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2858</t>
+          <t>2858</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5064,7 +5076,6 @@
           <t>93</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>22/08/2008</t>
@@ -5072,7 +5083,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2863</t>
+          <t>2863</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5112,7 +5123,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>26/08/2008</t>
@@ -5120,7 +5130,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2870</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5160,7 +5170,6 @@
           <t>95</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>29/08/2008</t>
@@ -5168,7 +5177,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2874</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5208,7 +5217,6 @@
           <t>96</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>31/08/2008</t>
@@ -5216,7 +5224,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2876</t>
+          <t>2876</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5256,7 +5264,6 @@
           <t>97</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>03/09/2008</t>
@@ -5264,7 +5271,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2878</t>
+          <t>2878</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5316,7 +5323,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2896</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5368,7 +5375,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2899</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5420,7 +5427,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5460,7 +5467,6 @@
           <t>101</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>23/11/2008</t>
@@ -5468,7 +5474,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2903</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5508,7 +5514,6 @@
           <t>102</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>20/03/2009</t>
@@ -5516,7 +5521,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5568,7 +5573,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5620,7 +5625,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5660,7 +5665,6 @@
           <t>105</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>29/03/2009</t>
@@ -5668,7 +5672,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5708,7 +5712,6 @@
           <t>106</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>03/04/2009</t>
@@ -5716,7 +5719,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5756,7 +5759,6 @@
           <t>107</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>24/05/2009</t>
@@ -5764,7 +5766,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -5804,7 +5806,6 @@
           <t>108</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/05/2009</t>
@@ -5812,7 +5813,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5852,7 +5853,6 @@
           <t>109</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>04/09/2009</t>
@@ -5860,7 +5860,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3009</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3010</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -5952,7 +5952,6 @@
           <t>111</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>09/09/2009</t>
@@ -5960,7 +5959,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3012</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6012,7 +6011,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3018</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6052,7 +6051,6 @@
           <t>113</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>20/09/2009</t>
@@ -6060,7 +6058,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3019</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6100,7 +6098,6 @@
           <t>114</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>25/09/2009</t>
@@ -6108,7 +6105,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3023</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6160,7 +6157,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6212,7 +6209,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6264,7 +6261,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3032</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6304,7 +6301,6 @@
           <t>118</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>22/11/2009</t>
@@ -6312,7 +6308,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3058</t>
+          <t>3058</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6364,7 +6360,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3059</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6404,7 +6400,6 @@
           <t>120</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>29/11/2009</t>
@@ -6412,7 +6407,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3060</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6452,7 +6447,6 @@
           <t>121</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>19/06/2010</t>
@@ -6460,7 +6454,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6500,7 +6494,6 @@
           <t>122</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>22/06/2010</t>
@@ -6508,7 +6501,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6548,7 +6541,6 @@
           <t>123</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>24/06/2010</t>
@@ -6556,7 +6548,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3131</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6608,7 +6600,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3133</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6660,7 +6652,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3134</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6712,7 +6704,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3141</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -6752,7 +6744,6 @@
           <t>127</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>08/07/2010</t>
@@ -6760,7 +6751,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -6812,7 +6803,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -6852,7 +6843,6 @@
           <t>129</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
           <t>10/09/2010</t>
@@ -6860,7 +6850,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6900,7 +6890,6 @@
           <t>130</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>12/09/2010</t>
@@ -6908,7 +6897,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -6960,7 +6949,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3176</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7012,7 +7001,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7052,7 +7041,6 @@
           <t>133</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
           <t>22/09/2010</t>
@@ -7060,7 +7048,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7100,7 +7088,6 @@
           <t>134</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -7108,7 +7095,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3224</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7160,7 +7147,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3226</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7200,7 +7187,6 @@
           <t>136</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>02/02/2011</t>
@@ -7208,7 +7194,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3229</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7260,7 +7246,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3233</t>
+          <t>3233</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7300,7 +7286,6 @@
           <t>138</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
           <t>22/02/2011</t>
@@ -7308,7 +7293,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3239</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7348,7 +7333,6 @@
           <t>139</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>27/02/2011</t>
@@ -7356,7 +7340,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3245</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7396,7 +7380,6 @@
           <t>140</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>02/03/2011</t>
@@ -7404,7 +7387,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7456,7 +7439,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3255</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7508,7 +7491,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7548,7 +7531,6 @@
           <t>143</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
           <t>28/06/2011</t>
@@ -7556,7 +7538,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7608,7 +7590,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7648,7 +7630,6 @@
           <t>145</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
           <t>03/07/2011</t>
@@ -7656,7 +7637,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -7696,7 +7677,6 @@
           <t>146</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -7704,7 +7684,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -7756,7 +7736,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3305</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -7796,7 +7776,6 @@
           <t>148</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -7804,7 +7783,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -7844,7 +7823,6 @@
           <t>149</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -7852,7 +7830,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -7892,7 +7870,6 @@
           <t>150</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>09/09/2011</t>
@@ -7900,7 +7877,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -7952,7 +7929,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -7992,7 +7969,6 @@
           <t>152</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
           <t>13/02/2012</t>
@@ -8000,7 +7976,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8040,7 +8016,6 @@
           <t>153</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
           <t>15/02/2012</t>
@@ -8048,7 +8023,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8088,7 +8063,6 @@
           <t>154</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>18/02/2012</t>
@@ -8096,7 +8070,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8136,7 +8110,6 @@
           <t>155</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
           <t>16/06/2012</t>
@@ -8144,7 +8117,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8184,7 +8157,6 @@
           <t>156</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>19/06/2012</t>
@@ -8192,7 +8164,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8232,7 +8204,6 @@
           <t>157</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
           <t>29/06/2012</t>
@@ -8240,7 +8211,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8280,7 +8251,6 @@
           <t>158</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -8288,7 +8258,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8328,7 +8298,6 @@
           <t>159</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>10/07/2012</t>
@@ -8336,7 +8305,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3426</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -8376,7 +8345,6 @@
           <t>160</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -8384,7 +8352,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3436</t>
+          <t>3436</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -8436,7 +8404,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3438</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -8476,7 +8444,6 @@
           <t>162</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
           <t>31/08/2012</t>
@@ -8484,7 +8451,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -8524,7 +8491,6 @@
           <t>163</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
           <t>02/09/2012</t>
@@ -8532,7 +8498,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -8584,7 +8550,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -8636,7 +8602,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -8676,7 +8642,6 @@
           <t>166</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -8684,7 +8649,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8724,7 +8689,6 @@
           <t>167</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>23/02/2013</t>
@@ -8732,7 +8696,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -8784,7 +8748,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -8836,7 +8800,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -8876,7 +8840,6 @@
           <t>170</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
           <t>08/06/2013</t>
@@ -8884,7 +8847,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -8924,7 +8887,6 @@
           <t>171</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
           <t>13/06/2013</t>
@@ -8932,7 +8894,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -8984,7 +8946,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -9024,7 +8986,6 @@
           <t>173</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
           <t>19/06/2013</t>
@@ -9032,7 +8993,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -9072,7 +9033,6 @@
           <t>174</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
           <t>23/06/2013</t>
@@ -9080,7 +9040,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -9120,7 +9080,6 @@
           <t>175</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
         <is>
           <t>09/05/2014</t>
@@ -9128,7 +9087,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -9168,7 +9127,6 @@
           <t>176</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
           <t>22/05/2014</t>
@@ -9176,7 +9134,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -9228,7 +9186,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -9268,7 +9226,6 @@
           <t>178</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -9276,7 +9233,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -9328,7 +9285,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -9380,7 +9337,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -9432,7 +9389,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9484,7 +9441,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -9536,7 +9493,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -9576,7 +9533,6 @@
           <t>184</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
           <t>05/09/2014</t>
@@ -9584,7 +9540,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -9624,7 +9580,6 @@
           <t>185</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -9632,7 +9587,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -9672,7 +9627,6 @@
           <t>186</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -9680,7 +9634,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -9720,7 +9674,6 @@
           <t>187</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
           <t>30/01/2015</t>
@@ -9728,7 +9681,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -9780,7 +9733,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -9832,7 +9785,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -9884,7 +9837,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -9924,7 +9877,6 @@
           <t>191</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
           <t>23/02/2015</t>
@@ -9932,7 +9884,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -9972,7 +9924,6 @@
           <t>192</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -9980,7 +9931,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -10032,7 +9983,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -10072,7 +10023,6 @@
           <t>194</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -10080,7 +10030,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -10119,7 +10069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10141,7 +10091,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -10178,7 +10128,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2005</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -10215,7 +10165,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2008</t>
+          <t>2008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -10252,7 +10202,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2010</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -10289,7 +10239,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2019</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -10326,7 +10276,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2020</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -10363,7 +10313,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2023</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -10400,7 +10350,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2024</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -10437,7 +10387,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2026</t>
+          <t>2026</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -10474,7 +10424,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2027</t>
+          <t>2027</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -10511,7 +10461,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2041</t>
+          <t>2041</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -10548,7 +10498,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2044</t>
+          <t>2044</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -10585,7 +10535,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2049</t>
+          <t>2049</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -10622,7 +10572,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2056</t>
+          <t>2056</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -10659,7 +10609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2064</t>
+          <t>2064</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -10696,7 +10646,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2114</t>
+          <t>2114</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -10733,7 +10683,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2115</t>
+          <t>2115</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -10770,7 +10720,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2116</t>
+          <t>2116</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10807,7 +10757,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2118</t>
+          <t>2118</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -10844,7 +10794,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2121</t>
+          <t>2121</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -10881,7 +10831,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2123</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -10918,7 +10868,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2124</t>
+          <t>2124</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -10955,7 +10905,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2126</t>
+          <t>2126</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -10992,7 +10942,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2146</t>
+          <t>2146</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -11029,7 +10979,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2148</t>
+          <t>2148</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -11066,7 +11016,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2149</t>
+          <t>2149</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -11103,7 +11053,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2152</t>
+          <t>2152</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -11140,7 +11090,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2213</t>
+          <t>2213</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -11177,7 +11127,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2219</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -11214,7 +11164,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2220</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -11251,7 +11201,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2221</t>
+          <t>2221</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -11288,7 +11238,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2230</t>
+          <t>2230</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -11325,7 +11275,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2231</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -11362,7 +11312,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2232</t>
+          <t>2232</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -11399,7 +11349,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2234</t>
+          <t>2234</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -11436,7 +11386,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2235</t>
+          <t>2235</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -11473,7 +11423,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2290</t>
+          <t>2290</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -11510,7 +11460,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2291</t>
+          <t>2291</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -11547,7 +11497,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2292</t>
+          <t>2292</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -11584,7 +11534,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2403</t>
+          <t>2403</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -11621,7 +11571,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2405</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -11658,7 +11608,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2406</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -11695,7 +11645,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2407</t>
+          <t>2407</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -11732,7 +11682,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2457</t>
+          <t>2457</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -11769,7 +11719,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2458</t>
+          <t>2458</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -11806,7 +11756,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2459</t>
+          <t>2459</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -11843,7 +11793,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2460</t>
+          <t>2460</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -11880,7 +11830,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2462</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -11917,7 +11867,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2463</t>
+          <t>2463</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -11954,7 +11904,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2533</t>
+          <t>2533</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -11991,7 +11941,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2538</t>
+          <t>2538</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -12028,7 +11978,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2543</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -12065,7 +12015,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2579</t>
+          <t>2579</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -12102,7 +12052,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2581</t>
+          <t>2581</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -12139,7 +12089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2584</t>
+          <t>2584</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -12176,7 +12126,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2589</t>
+          <t>2589</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -12213,7 +12163,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2643</t>
+          <t>2643</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -12250,7 +12200,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2648</t>
+          <t>2648</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -12287,7 +12237,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2660</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -12324,7 +12274,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2665</t>
+          <t>2665</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -12361,7 +12311,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2670</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -12398,7 +12348,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2672</t>
+          <t>2672</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -12435,7 +12385,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2675</t>
+          <t>2675</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -12472,7 +12422,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2681</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -12509,7 +12459,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2685</t>
+          <t>2685</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -12546,7 +12496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2702</t>
+          <t>2702</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12583,7 +12533,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2707</t>
+          <t>2707</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -12620,7 +12570,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2709</t>
+          <t>2709</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12657,7 +12607,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2722</t>
+          <t>2722</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12694,7 +12644,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2724</t>
+          <t>2724</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -12731,7 +12681,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2727</t>
+          <t>2727</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -12768,7 +12718,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2728</t>
+          <t>2728</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -12805,7 +12755,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2729</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -12842,7 +12792,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2730</t>
+          <t>2730</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -12879,7 +12829,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2731</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -12916,7 +12866,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2733</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -12953,7 +12903,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2735</t>
+          <t>2735</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -12990,7 +12940,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2737</t>
+          <t>2737</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -13027,7 +12977,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2739</t>
+          <t>2739</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -13064,7 +13014,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2741</t>
+          <t>2741</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -13101,7 +13051,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2786</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -13138,7 +13088,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2789</t>
+          <t>2789</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -13175,7 +13125,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2790</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -13212,7 +13162,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2794</t>
+          <t>2794</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -13249,7 +13199,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2796</t>
+          <t>2796</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -13286,7 +13236,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2820</t>
+          <t>2820</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -13323,7 +13273,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2821</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -13360,7 +13310,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2822</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -13397,7 +13347,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2826</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -13434,7 +13384,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2832</t>
+          <t>2832</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -13471,7 +13421,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2858</t>
+          <t>2858</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -13508,7 +13458,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2863</t>
+          <t>2863</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -13545,7 +13495,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2870</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -13582,7 +13532,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2874</t>
+          <t>2874</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -13619,7 +13569,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2876</t>
+          <t>2876</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -13656,7 +13606,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2878</t>
+          <t>2878</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -13693,7 +13643,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2896</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -13730,7 +13680,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2899</t>
+          <t>2899</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -13767,7 +13717,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2900</t>
+          <t>2900</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -13804,7 +13754,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2903</t>
+          <t>2903</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -13841,7 +13791,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2948</t>
+          <t>2948</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -13878,7 +13828,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2949</t>
+          <t>2949</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -13915,7 +13865,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2950</t>
+          <t>2950</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -13952,7 +13902,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2951</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -13989,7 +13939,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2955</t>
+          <t>2955</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -14026,7 +13976,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2973</t>
+          <t>2973</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -14063,7 +14013,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=2974</t>
+          <t>2974</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -14100,7 +14050,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3009</t>
+          <t>3009</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -14137,7 +14087,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3010</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -14174,7 +14124,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3012</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -14211,7 +14161,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3018</t>
+          <t>3018</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -14248,7 +14198,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3019</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -14285,7 +14235,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3023</t>
+          <t>3023</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -14322,7 +14272,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3027</t>
+          <t>3027</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -14359,7 +14309,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3029</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -14396,7 +14346,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3032</t>
+          <t>3032</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -14433,7 +14383,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3058</t>
+          <t>3058</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -14470,7 +14420,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3059</t>
+          <t>3059</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -14507,7 +14457,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3060</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -14544,7 +14494,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3127</t>
+          <t>3127</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -14581,7 +14531,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3129</t>
+          <t>3129</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -14618,7 +14568,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3131</t>
+          <t>3131</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -14655,7 +14605,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3133</t>
+          <t>3133</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -14692,7 +14642,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3134</t>
+          <t>3134</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -14729,7 +14679,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3141</t>
+          <t>3141</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -14766,7 +14716,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3148</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -14803,7 +14753,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3155</t>
+          <t>3155</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -14840,7 +14790,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3174</t>
+          <t>3174</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -14877,7 +14827,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3175</t>
+          <t>3175</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -14914,7 +14864,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3176</t>
+          <t>3176</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -14951,7 +14901,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3177</t>
+          <t>3177</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -14988,7 +14938,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3178</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -15025,7 +14975,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3224</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -15062,7 +15012,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3226</t>
+          <t>3226</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -15099,7 +15049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3229</t>
+          <t>3229</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -15136,7 +15086,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3233</t>
+          <t>3233</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -15173,7 +15123,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3239</t>
+          <t>3239</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -15210,7 +15160,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3245</t>
+          <t>3245</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -15247,7 +15197,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3249</t>
+          <t>3249</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -15284,7 +15234,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3255</t>
+          <t>3255</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -15321,7 +15271,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3262</t>
+          <t>3262</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -15358,7 +15308,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3300</t>
+          <t>3300</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -15395,7 +15345,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3302</t>
+          <t>3302</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -15432,7 +15382,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3303</t>
+          <t>3303</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -15469,7 +15419,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3304</t>
+          <t>3304</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -15506,7 +15456,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3305</t>
+          <t>3305</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -15543,7 +15493,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -15580,7 +15530,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -15617,7 +15567,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -15654,7 +15604,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -15691,7 +15641,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3374</t>
+          <t>3374</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -15728,7 +15678,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3376</t>
+          <t>3376</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -15765,7 +15715,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3379</t>
+          <t>3379</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -15802,7 +15752,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3412</t>
+          <t>3412</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -15839,7 +15789,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3414</t>
+          <t>3414</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -15876,7 +15826,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3417</t>
+          <t>3417</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -15913,7 +15863,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3423</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -15950,7 +15900,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3426</t>
+          <t>3426</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -15987,7 +15937,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3438</t>
+          <t>3438</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -16024,7 +15974,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3440</t>
+          <t>3440</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -16061,7 +16011,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3442</t>
+          <t>3442</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -16098,7 +16048,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3444</t>
+          <t>3444</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -16135,7 +16085,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -16172,7 +16122,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -16209,7 +16159,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -16246,7 +16196,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -16283,7 +16233,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -16320,7 +16270,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -16357,7 +16307,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -16394,7 +16344,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -16431,7 +16381,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -16468,7 +16418,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -16505,7 +16455,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -16542,7 +16492,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -16579,7 +16529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -16616,7 +16566,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -16653,7 +16603,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -16690,7 +16640,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -16727,7 +16677,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -16764,7 +16714,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -16801,7 +16751,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -16838,7 +16788,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -16875,7 +16825,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -16912,7 +16862,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -16949,7 +16899,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -16986,7 +16936,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -17023,7 +16973,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -17060,7 +17010,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -17097,7 +17047,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -17134,7 +17084,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -17171,7 +17121,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -17208,7 +17158,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -17236,6 +17186,403 @@
           <t>1/18</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3638</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3639</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3641</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3642</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17247,9 +17248,6 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17265,9 +17263,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17280,15 +17275,325 @@
           <t>3639</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3640</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3641</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3642</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3738</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3746</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>11</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3749</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3756</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3761</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3769</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3780</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3785</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3637</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3638</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3639</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -17296,17 +17601,8 @@
           <t>3640</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -17316,13 +17612,6 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -17332,13 +17621,6 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -17346,15 +17628,12 @@
           <t>3664</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -17362,29 +17641,8 @@
           <t>3667</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -17392,17 +17650,12 @@
           <t>3670</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -17410,15 +17663,14 @@
           <t>3672</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -17428,13 +17680,14 @@
           <t>3735</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -17444,17 +17697,8 @@
           <t>3738</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -17462,13 +17706,14 @@
           <t>3744</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -17478,29 +17723,8 @@
           <t>3746</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -17508,15 +17732,12 @@
           <t>3749</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -17524,17 +17745,12 @@
           <t>3756</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>11</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -17544,9 +17760,6 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17554,11 +17767,12 @@
           <t>3769</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17566,11 +17780,16 @@
           <t>3780</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17578,11 +17797,16 @@
           <t>3785</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1893,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5277,7 +5276,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -17248,6 +17247,9 @@
       <c r="B2" t="n">
         <v>10</v>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17263,6 +17265,9 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17275,6 +17280,10 @@
           <t>3639</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17290,6 +17299,9 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17302,6 +17314,10 @@
           <t>3641</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17314,6 +17330,10 @@
           <t>3642</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17326,6 +17346,10 @@
           <t>3664</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17371,6 +17395,9 @@
       <c r="B10" t="n">
         <v>11</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17386,6 +17413,9 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17398,6 +17428,10 @@
           <t>3735</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17413,6 +17447,9 @@
       <c r="B13" t="n">
         <v>10</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17425,6 +17462,10 @@
           <t>3744</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17467,6 +17508,10 @@
           <t>3749</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17482,6 +17527,9 @@
       <c r="B17" t="n">
         <v>11</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -17494,6 +17542,11 @@
           <t>3761</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -17501,6 +17554,11 @@
           <t>3769</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17508,6 +17566,11 @@
           <t>3780</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17515,298 +17578,11 @@
           <t>3785</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3637</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3638</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3639</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3640</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3641</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3642</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3664</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3667</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3670</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3672</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3735</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3738</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3744</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3746</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3749</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3756</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3761</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3769</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3065.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -713,6 +712,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>11/01/2003</t>
@@ -812,6 +812,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>17/01/2003</t>
@@ -1015,6 +1016,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>16/02/2003</t>
@@ -1114,6 +1116,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>22/02/2003</t>
@@ -1213,6 +1216,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>02/03/2003</t>
@@ -1312,6 +1316,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>20/06/2003</t>
@@ -1359,6 +1364,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>22/06/2003</t>
@@ -1406,6 +1412,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>28/06/2003</t>
@@ -1453,6 +1460,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>01/07/2003</t>
@@ -1500,6 +1508,7 @@
           <t>20</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
           <t>03/07/2003</t>
@@ -1547,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>06/07/2003</t>
@@ -1594,6 +1604,7 @@
           <t>22</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>08/07/2003</t>
@@ -1641,6 +1652,7 @@
           <t>23</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>12/07/2003</t>
@@ -1688,6 +1700,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>07/11/2003</t>
@@ -1735,6 +1748,7 @@
           <t>25</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>10/11/2003</t>
@@ -1782,6 +1796,7 @@
           <t>26</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>12/11/2003</t>
@@ -1881,6 +1896,7 @@
           <t>28</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
           <t>24/04/2004</t>
@@ -1928,6 +1944,7 @@
           <t>29</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
           <t>01/05/2004</t>
@@ -1975,6 +1992,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>02/05/2004</t>
@@ -2022,6 +2040,7 @@
           <t>31</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>05/05/2004</t>
@@ -2173,6 +2192,7 @@
           <t>34</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>01/07/2004</t>
@@ -2220,6 +2240,7 @@
           <t>35</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
           <t>04/07/2004</t>
@@ -2267,6 +2288,7 @@
           <t>36</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>06/07/2004</t>
@@ -2314,6 +2336,7 @@
           <t>37</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr">
         <is>
           <t>28/11/2004</t>
@@ -2361,6 +2384,7 @@
           <t>38</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
           <t>01/12/2004</t>
@@ -2408,6 +2432,7 @@
           <t>39</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
           <t>04/12/2004</t>
@@ -2455,6 +2480,7 @@
           <t>40</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
           <t>10/12/2005</t>
@@ -2502,6 +2528,7 @@
           <t>41</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr">
         <is>
           <t>12/12/2005</t>
@@ -2549,6 +2576,7 @@
           <t>42</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr">
         <is>
           <t>15/12/2005</t>
@@ -2648,6 +2676,7 @@
           <t>44</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
           <t>21/12/2005</t>
@@ -2903,6 +2932,7 @@
           <t>49</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>12/04/2006</t>
@@ -3106,6 +3136,7 @@
           <t>53</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr">
         <is>
           <t>28/10/2006</t>
@@ -3153,6 +3184,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>12/01/2007</t>
@@ -3200,6 +3232,7 @@
           <t>55</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
           <t>16/01/2007</t>
@@ -3351,6 +3384,7 @@
           <t>58</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr">
         <is>
           <t>16/03/2007</t>
@@ -3398,6 +3432,7 @@
           <t>59</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
           <t>18/03/2007</t>
@@ -3445,6 +3480,7 @@
           <t>60</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
           <t>24/03/2007</t>
@@ -3492,6 +3528,7 @@
           <t>61</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
           <t>30/03/2007</t>
@@ -3539,6 +3576,7 @@
           <t>62</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr">
         <is>
           <t>04/04/2007</t>
@@ -3638,6 +3676,7 @@
           <t>64</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>11/04/2007</t>
@@ -3945,6 +3984,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>21/08/2007</t>
@@ -3992,6 +4032,7 @@
           <t>71</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr">
         <is>
           <t>24/08/2007</t>
@@ -4091,6 +4132,7 @@
           <t>73</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr">
         <is>
           <t>30/08/2007</t>
@@ -4190,6 +4232,7 @@
           <t>75</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr">
         <is>
           <t>05/09/2007</t>
@@ -4237,6 +4280,7 @@
           <t>76</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr">
         <is>
           <t>08/09/2007</t>
@@ -4336,6 +4380,7 @@
           <t>78</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr">
         <is>
           <t>04/10/2007</t>
@@ -4383,6 +4428,7 @@
           <t>79</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr">
         <is>
           <t>07/10/2007</t>
@@ -4430,6 +4476,7 @@
           <t>80</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr">
         <is>
           <t>10/10/2007</t>
@@ -4633,6 +4680,7 @@
           <t>84</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr">
         <is>
           <t>15/02/2008</t>
@@ -4680,6 +4728,7 @@
           <t>85</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="inlineStr">
         <is>
           <t>20/02/2008</t>
@@ -4727,6 +4776,7 @@
           <t>86</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>23/02/2008</t>
@@ -4774,6 +4824,7 @@
           <t>87</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr">
         <is>
           <t>15/06/2008</t>
@@ -5029,6 +5080,7 @@
           <t>92</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
           <t>18/08/2008</t>
@@ -5076,6 +5128,7 @@
           <t>93</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr">
         <is>
           <t>22/08/2008</t>
@@ -5123,6 +5176,7 @@
           <t>94</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>26/08/2008</t>
@@ -5170,6 +5224,7 @@
           <t>95</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr">
         <is>
           <t>29/08/2008</t>
@@ -5217,6 +5272,7 @@
           <t>96</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr">
         <is>
           <t>31/08/2008</t>
@@ -5264,6 +5320,7 @@
           <t>97</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr">
         <is>
           <t>03/09/2008</t>
@@ -5467,6 +5524,7 @@
           <t>101</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr">
         <is>
           <t>23/11/2008</t>
@@ -5514,6 +5572,7 @@
           <t>102</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr">
         <is>
           <t>20/03/2009</t>
@@ -5665,6 +5724,7 @@
           <t>105</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr">
         <is>
           <t>29/03/2009</t>
@@ -5712,6 +5772,7 @@
           <t>106</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr">
         <is>
           <t>03/04/2009</t>
@@ -5759,6 +5820,7 @@
           <t>107</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr">
         <is>
           <t>24/05/2009</t>
@@ -5806,6 +5868,7 @@
           <t>108</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr">
         <is>
           <t>26/05/2009</t>
@@ -5853,6 +5916,7 @@
           <t>109</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr">
         <is>
           <t>04/09/2009</t>
@@ -5952,6 +6016,7 @@
           <t>111</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr">
         <is>
           <t>09/09/2009</t>
@@ -6051,6 +6116,7 @@
           <t>113</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr">
         <is>
           <t>20/09/2009</t>
@@ -6098,6 +6164,7 @@
           <t>114</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr">
         <is>
           <t>25/09/2009</t>
@@ -6301,6 +6368,7 @@
           <t>118</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr">
         <is>
           <t>22/11/2009</t>
@@ -6400,6 +6468,7 @@
           <t>120</t>
         </is>
       </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr">
         <is>
           <t>29/11/2009</t>
@@ -6447,6 +6516,7 @@
           <t>121</t>
         </is>
       </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr">
         <is>
           <t>19/06/2010</t>
@@ -6494,6 +6564,7 @@
           <t>122</t>
         </is>
       </c>
+      <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr">
         <is>
           <t>22/06/2010</t>
@@ -6541,6 +6612,7 @@
           <t>123</t>
         </is>
       </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr">
         <is>
           <t>24/06/2010</t>
@@ -6744,6 +6816,7 @@
           <t>127</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr">
         <is>
           <t>08/07/2010</t>
@@ -6843,6 +6916,7 @@
           <t>129</t>
         </is>
       </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr">
         <is>
           <t>10/09/2010</t>
@@ -6890,6 +6964,7 @@
           <t>130</t>
         </is>
       </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="inlineStr">
         <is>
           <t>12/09/2010</t>
@@ -7041,6 +7116,7 @@
           <t>133</t>
         </is>
       </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr">
         <is>
           <t>22/09/2010</t>
@@ -7088,6 +7164,7 @@
           <t>134</t>
         </is>
       </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -7187,6 +7264,7 @@
           <t>136</t>
         </is>
       </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr">
         <is>
           <t>02/02/2011</t>
@@ -7286,6 +7364,7 @@
           <t>138</t>
         </is>
       </c>
+      <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr">
         <is>
           <t>22/02/2011</t>
@@ -7333,6 +7412,7 @@
           <t>139</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr">
         <is>
           <t>27/02/2011</t>
@@ -7380,6 +7460,7 @@
           <t>140</t>
         </is>
       </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
           <t>02/03/2011</t>
@@ -7531,6 +7612,7 @@
           <t>143</t>
         </is>
       </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr">
         <is>
           <t>28/06/2011</t>
@@ -7630,6 +7712,7 @@
           <t>145</t>
         </is>
       </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
           <t>03/07/2011</t>
@@ -7677,6 +7760,7 @@
           <t>146</t>
         </is>
       </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr">
         <is>
           <t>06/07/2011</t>
@@ -7776,6 +7860,7 @@
           <t>148</t>
         </is>
       </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr">
         <is>
           <t>03/09/2011</t>
@@ -7823,6 +7908,7 @@
           <t>149</t>
         </is>
       </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr">
         <is>
           <t>06/09/2011</t>
@@ -7870,6 +7956,7 @@
           <t>150</t>
         </is>
       </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr">
         <is>
           <t>09/09/2011</t>
@@ -7969,6 +8056,7 @@
           <t>152</t>
         </is>
       </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
           <t>13/02/2012</t>
@@ -8016,6 +8104,7 @@
           <t>153</t>
         </is>
       </c>
+      <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr">
         <is>
           <t>15/02/2012</t>
@@ -8063,6 +8152,7 @@
           <t>154</t>
         </is>
       </c>
+      <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr">
         <is>
           <t>18/02/2012</t>
@@ -8110,6 +8200,7 @@
           <t>155</t>
         </is>
       </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr">
         <is>
           <t>16/06/2012</t>
@@ -8157,6 +8248,7 @@
           <t>156</t>
         </is>
       </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr">
         <is>
           <t>19/06/2012</t>
@@ -8204,6 +8296,7 @@
           <t>157</t>
         </is>
       </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr">
         <is>
           <t>29/06/2012</t>
@@ -8251,6 +8344,7 @@
           <t>158</t>
         </is>
       </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
           <t>07/07/2012</t>
@@ -8298,6 +8392,7 @@
           <t>159</t>
         </is>
       </c>
+      <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr">
         <is>
           <t>10/07/2012</t>
@@ -8345,6 +8440,7 @@
           <t>160</t>
         </is>
       </c>
+      <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr">
         <is>
           <t>24/08/2012</t>
@@ -8444,6 +8540,7 @@
           <t>162</t>
         </is>
       </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr">
         <is>
           <t>31/08/2012</t>
@@ -8491,6 +8588,7 @@
           <t>163</t>
         </is>
       </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="inlineStr">
         <is>
           <t>02/09/2012</t>
@@ -8642,6 +8740,7 @@
           <t>166</t>
         </is>
       </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr">
         <is>
           <t>20/02/2013</t>
@@ -8689,6 +8788,7 @@
           <t>167</t>
         </is>
       </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr">
         <is>
           <t>23/02/2013</t>
@@ -8840,6 +8940,7 @@
           <t>170</t>
         </is>
       </c>
+      <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr">
         <is>
           <t>08/06/2013</t>
@@ -8887,6 +8988,7 @@
           <t>171</t>
         </is>
       </c>
+      <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr">
         <is>
           <t>13/06/2013</t>
@@ -8986,6 +9088,7 @@
           <t>173</t>
         </is>
       </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr">
         <is>
           <t>19/06/2013</t>
@@ -9033,6 +9136,7 @@
           <t>174</t>
         </is>
       </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr">
         <is>
           <t>23/06/2013</t>
@@ -9080,6 +9184,7 @@
           <t>175</t>
         </is>
       </c>
+      <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr">
         <is>
           <t>09/05/2014</t>
@@ -9127,6 +9232,7 @@
           <t>176</t>
         </is>
       </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
           <t>22/05/2014</t>
@@ -9226,6 +9332,7 @@
           <t>178</t>
         </is>
       </c>
+      <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -9533,6 +9640,7 @@
           <t>184</t>
         </is>
       </c>
+      <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr">
         <is>
           <t>05/09/2014</t>
@@ -9580,6 +9688,7 @@
           <t>185</t>
         </is>
       </c>
+      <c r="B186" t="inlineStr"/>
       <c r="C186" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -9627,6 +9736,7 @@
           <t>186</t>
         </is>
       </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr">
         <is>
           <t>23/01/2015</t>
@@ -9674,6 +9784,7 @@
           <t>187</t>
         </is>
       </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr">
         <is>
           <t>30/01/2015</t>
@@ -9877,6 +9988,7 @@
           <t>191</t>
         </is>
       </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr">
         <is>
           <t>23/02/2015</t>
@@ -9924,6 +10036,7 @@
           <t>192</t>
         </is>
       </c>
+      <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr">
         <is>
           <t>01/03/2015</t>
@@ -10023,6 +10136,7 @@
           <t>194</t>
         </is>
       </c>
+      <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -17190,401 +17304,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3637</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3638</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3639</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3640</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3641</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3642</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3664</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3667</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3670</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>11</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3672</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3735</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3738</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3744</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3746</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.81%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3749</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3756</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>11</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3761</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>3769</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>3780</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>3785</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>